--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS7.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS7.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="132">
-  <si>
-    <t>Signal_Value_10</t>
-  </si>
-  <si>
-    <t>Signal_Value_11</t>
-  </si>
-  <si>
-    <t>Signal_Value_12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="137">
   <si>
     <t>Signal_Value_13</t>
   </si>
@@ -336,6 +327,33 @@
     <t>Signal_Value_114</t>
   </si>
   <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -408,10 +426,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -772,15 +787,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DB6"/>
+  <dimension ref="A1:DH6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:106">
+    <row r="1" spans="1:112">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1097,10 +1112,28 @@
       <c r="DB1" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:106">
+    <row r="2" spans="1:112">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1109,100 +1142,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.08981973694871939</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1238357897198997</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0318790818576353</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01241835449621807</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01972081688005542</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.007911818079672749</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1037618736354369</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09388772879785909</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.003455161953627465</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03771371119480892</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.1251649271989704</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.001972411301387443</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00249391392843371</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0628856712335235</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.02440595434518309</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.02333221296601704</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0001096210764866441</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.09172527999436196</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00831598075480992</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.04405792670805368</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.04079773239644646</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.0003400398969609566</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.005397979362118078</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.002918464080151864</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.0002128622817229372</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.002640546267305093</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.000511895839226374</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.001152899669474605</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.03715960713543311</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1316,100 +1349,100 @@
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.003726327787528696</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01651184384227451</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0005095138851467926</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.01560281414878214</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0005440559182955388</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0004008705977042667</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.02030872210170542</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.008325086583598479</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.003970457641328901</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.04055270861261715</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0579673974099171</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.03323322218762613</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>7.716674216208621E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.02152341489871649</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.05450593056616303</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.04312253945553798</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.02283649635579659</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.005676154397945149</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.003238309630094409</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.02773372641602242</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.06044327715494369</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.08818603252072249</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.07614917727783928</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.02603124793233208</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.003254978861409575</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.004892876250568006</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.03014444814560351</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.07007880785873362</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.09967142324887254</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.1001006713240329</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.04952734141631134</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.01115295882966766</v>
+        <v>0</v>
       </c>
       <c r="DA2">
         <v>0</v>
@@ -1417,10 +1450,28 @@
       <c r="DB2">
         <v>0</v>
       </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:106">
+    <row r="3" spans="1:112">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1642,105 +1693,123 @@
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.006792736775670077</v>
+        <v>0</v>
       </c>
       <c r="BX3">
         <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0001591739752131988</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0002675810961208109</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.004758661851955591</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.02496381392248101</v>
+        <v>0.1395651056309408</v>
       </c>
       <c r="CC3">
-        <v>0.00273507065080808</v>
+        <v>0.06961622337755077</v>
       </c>
       <c r="CD3">
-        <v>0.03219907746432903</v>
+        <v>0.07705744724878576</v>
       </c>
       <c r="CE3">
-        <v>0.07272752985329978</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.04523248559529917</v>
+        <v>0.003318698226678548</v>
       </c>
       <c r="CG3">
-        <v>0.002787078628684002</v>
+        <v>0.02704688937033885</v>
       </c>
       <c r="CH3">
-        <v>0.01660080447196866</v>
+        <v>0.005860912182961472</v>
       </c>
       <c r="CI3">
-        <v>0.05516336521696439</v>
+        <v>0.08253115706900731</v>
       </c>
       <c r="CJ3">
-        <v>0.07540602650384247</v>
+        <v>0.07720461828967295</v>
       </c>
       <c r="CK3">
-        <v>0.04768838234498361</v>
+        <v>0.02667532853713411</v>
       </c>
       <c r="CL3">
-        <v>0.01029237014625841</v>
+        <v>0.02322995612861843</v>
       </c>
       <c r="CM3">
-        <v>0.005906786506297142</v>
+        <v>0.1470094809716418</v>
       </c>
       <c r="CN3">
-        <v>0.04904321657162045</v>
+        <v>0.0004556262411692394</v>
       </c>
       <c r="CO3">
-        <v>0.07653745463209173</v>
+        <v>0.006390360603140586</v>
       </c>
       <c r="CP3">
-        <v>0.07493781852568085</v>
+        <v>0.03166267620775352</v>
       </c>
       <c r="CQ3">
-        <v>0.06093437424881204</v>
+        <v>0.02716277820201916</v>
       </c>
       <c r="CR3">
-        <v>0.03752994996546487</v>
+        <v>0.01581317939428964</v>
       </c>
       <c r="CS3">
-        <v>0.00656774001450512</v>
+        <v>0.01596514221866807</v>
       </c>
       <c r="CT3">
-        <v>0.002409356333348139</v>
+        <v>0.05444812334288297</v>
       </c>
       <c r="CU3">
-        <v>0.02752618482934034</v>
+        <v>0.03891104822987548</v>
       </c>
       <c r="CV3">
-        <v>0.05501213482868968</v>
+        <v>0.04437724618681266</v>
       </c>
       <c r="CW3">
-        <v>0.07496458603625716</v>
+        <v>0.02120064744435585</v>
       </c>
       <c r="CX3">
-        <v>0.07123962571403752</v>
+        <v>0.0001678295909862464</v>
       </c>
       <c r="CY3">
-        <v>0.0416331483741788</v>
+        <v>0.000308171077227486</v>
       </c>
       <c r="CZ3">
-        <v>0.01432796100542499</v>
+        <v>0.000449702460178536</v>
       </c>
       <c r="DA3">
-        <v>0.003655503916373129</v>
+        <v>0.01670615085063236</v>
       </c>
       <c r="DB3">
+        <v>0.004176251040981763</v>
+      </c>
+      <c r="DC3">
+        <v>0.0224169183371558</v>
+      </c>
+      <c r="DD3">
+        <v>0.0003639186347010027</v>
+      </c>
+      <c r="DE3">
+        <v>9.353073801220599E-05</v>
+      </c>
+      <c r="DF3">
+        <v>0.006377667930707972</v>
+      </c>
+      <c r="DG3">
+        <v>0.01343721423511824</v>
+      </c>
+      <c r="DH3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:106">
+    <row r="4" spans="1:112">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1749,28 +1818,28 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01655474909039141</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02291357332226277</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.02443503686936296</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02010118192351661</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01633742553972272</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008567172586307478</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.003350162951977236</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0007334514620695541</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1785,64 +1854,64 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001065020810990046</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.006495501570747681</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01550123772927423</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.02058313426571686</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.02523196017423528</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0217104862177699</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01032207201730446</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.002324115974422029</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.00529584607807288</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01802562942225962</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.04223938247664101</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06474282182287688</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.09344427970624423</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.1158122567785722</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.1261712617743187</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.1216245890001153</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.09948888606927324</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.06671400831494924</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.03021475605060533</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1977,90 +2046,108 @@
         <v>0</v>
       </c>
       <c r="CB4">
-        <v>0</v>
+        <v>0.1183560323431743</v>
       </c>
       <c r="CC4">
-        <v>0</v>
+        <v>0.07232696754021652</v>
       </c>
       <c r="CD4">
-        <v>0</v>
+        <v>0.05770259801494233</v>
       </c>
       <c r="CE4">
-        <v>0</v>
+        <v>0.006001664714810485</v>
       </c>
       <c r="CF4">
-        <v>0</v>
+        <v>6.875935122692355E-05</v>
       </c>
       <c r="CG4">
-        <v>0</v>
+        <v>0.06044993430397495</v>
       </c>
       <c r="CH4">
-        <v>0</v>
+        <v>0.003039273280062218</v>
       </c>
       <c r="CI4">
-        <v>0</v>
+        <v>0.05211250168577978</v>
       </c>
       <c r="CJ4">
-        <v>0</v>
+        <v>0.09598920180340988</v>
       </c>
       <c r="CK4">
-        <v>0</v>
+        <v>0.01952258830105526</v>
       </c>
       <c r="CL4">
-        <v>0</v>
+        <v>0.01156400235950477</v>
       </c>
       <c r="CM4">
-        <v>0</v>
+        <v>0.1783933345320094</v>
       </c>
       <c r="CN4">
-        <v>0</v>
+        <v>0.01850389623130471</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>0.0006222148032320923</v>
       </c>
       <c r="CP4">
-        <v>0</v>
+        <v>6.057347562115516E-05</v>
       </c>
       <c r="CQ4">
-        <v>0</v>
+        <v>0.03985005621101627</v>
       </c>
       <c r="CR4">
-        <v>0</v>
+        <v>0.06935203736498659</v>
       </c>
       <c r="CS4">
-        <v>0</v>
+        <v>1.396937774146823E-05</v>
       </c>
       <c r="CT4">
-        <v>0</v>
+        <v>0.09159718609588878</v>
       </c>
       <c r="CU4">
-        <v>0</v>
+        <v>0.02638377619928512</v>
       </c>
       <c r="CV4">
-        <v>0</v>
+        <v>0.01138024646484423</v>
       </c>
       <c r="CW4">
-        <v>0</v>
+        <v>0.02208779175576592</v>
       </c>
       <c r="CX4">
-        <v>0</v>
+        <v>0.0003230276393777824</v>
       </c>
       <c r="CY4">
-        <v>0</v>
+        <v>0.003695054365117002</v>
       </c>
       <c r="CZ4">
-        <v>0</v>
+        <v>0.002003267092530969</v>
       </c>
       <c r="DA4">
-        <v>0</v>
+        <v>0.000746746522631136</v>
       </c>
       <c r="DB4">
+        <v>0.00461172430223031</v>
+      </c>
+      <c r="DC4">
+        <v>0.006909628829066583</v>
+      </c>
+      <c r="DD4">
+        <v>0.001195587298136008</v>
+      </c>
+      <c r="DE4">
+        <v>0.005375459732139302</v>
+      </c>
+      <c r="DF4">
+        <v>1.246154840231713E-05</v>
+      </c>
+      <c r="DG4">
+        <v>0.01974843646051526</v>
+      </c>
+      <c r="DH4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:106">
+    <row r="5" spans="1:112">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2132,25 +2219,25 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.005704338696864659</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.005366336165061391</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003547064953683727</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003501000147166934</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001777604259332306</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0008947407634521772</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0002179220341828516</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -2159,16 +2246,16 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0003307008738929835</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>3.919202888786537E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0004189100688060544</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0001321681241609169</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -2180,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0004102136911872068</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0002771582350648189</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2192,40 +2279,40 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.006057253695184644</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.04742840632953588</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.09281790728196276</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.1641451546811568</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.000661886981683822</v>
+        <v>0</v>
       </c>
       <c r="AX5">
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.000380075457885865</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.005777019738250926</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.02985938245139565</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.04604688317116681</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.08358767129616282</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.5006210088738702</v>
+        <v>0</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -2291,96 +2378,114 @@
         <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>0.05413347948808683</v>
       </c>
       <c r="CA5">
-        <v>0</v>
+        <v>0.005412582210918736</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>0.1707319180639141</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>0.01187637765200192</v>
       </c>
       <c r="CD5">
         <v>0</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>0.001866403653468777</v>
       </c>
       <c r="CF5">
-        <v>0</v>
+        <v>0.02687028245999863</v>
       </c>
       <c r="CG5">
-        <v>0</v>
+        <v>0.02808024856087124</v>
       </c>
       <c r="CH5">
-        <v>0</v>
+        <v>0.09003462430175652</v>
       </c>
       <c r="CI5">
-        <v>0</v>
+        <v>0.05658253989648565</v>
       </c>
       <c r="CJ5">
-        <v>0</v>
+        <v>0.0003705581323226809</v>
       </c>
       <c r="CK5">
-        <v>0</v>
+        <v>0.1070982358147323</v>
       </c>
       <c r="CL5">
-        <v>0</v>
+        <v>0.05208010328857478</v>
       </c>
       <c r="CM5">
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>0.02199555924685793</v>
       </c>
       <c r="CO5">
-        <v>0</v>
+        <v>0.06352660962229853</v>
       </c>
       <c r="CP5">
-        <v>0</v>
+        <v>0.007375429481448537</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>0.03053698055893286</v>
       </c>
       <c r="CR5">
-        <v>0</v>
+        <v>0.003251009783838332</v>
       </c>
       <c r="CS5">
-        <v>0</v>
+        <v>0.09470250209241074</v>
       </c>
       <c r="CT5">
-        <v>0</v>
+        <v>0.02530684078967515</v>
       </c>
       <c r="CU5">
-        <v>0</v>
+        <v>0.07309072831787577</v>
       </c>
       <c r="CV5">
-        <v>0</v>
+        <v>0.001880174469735579</v>
       </c>
       <c r="CW5">
-        <v>0</v>
+        <v>0.0004725337583111603</v>
       </c>
       <c r="CX5">
-        <v>0</v>
+        <v>0.001102474679675225</v>
       </c>
       <c r="CY5">
-        <v>0</v>
+        <v>0.001153021696534103</v>
       </c>
       <c r="CZ5">
-        <v>0</v>
+        <v>0.03981461379354954</v>
       </c>
       <c r="DA5">
-        <v>0</v>
+        <v>0.008929797523237266</v>
       </c>
       <c r="DB5">
+        <v>0.007655574485274979</v>
+      </c>
+      <c r="DC5">
+        <v>0.005303842566669013</v>
+      </c>
+      <c r="DD5">
+        <v>0.008762563125030603</v>
+      </c>
+      <c r="DE5">
+        <v>2.390485512398422E-06</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:106">
+    <row r="6" spans="1:112">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2593,109 +2698,127 @@
         <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.003454173657956241</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0122680935085736</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0001481915261763378</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01555342808729372</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.005203891897791485</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>7.127375885207866E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.001754019136149124</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0003315610079691311</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.01278188821601007</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>3.955721425953599E-05</v>
+        <v>0.05436386184383819</v>
       </c>
       <c r="CD6">
-        <v>0.04706694478097692</v>
+        <v>0.111489707466872</v>
       </c>
       <c r="CE6">
-        <v>0.06647788457306379</v>
+        <v>0.0591610210271156</v>
       </c>
       <c r="CF6">
-        <v>0.01333682445324321</v>
+        <v>0.002058854539670656</v>
       </c>
       <c r="CG6">
-        <v>0.002327116933221859</v>
+        <v>0.0119132057734746</v>
       </c>
       <c r="CH6">
-        <v>0.03009406568054675</v>
+        <v>0.01788179231740037</v>
       </c>
       <c r="CI6">
-        <v>0.07202504046108268</v>
+        <v>0.01150570432018289</v>
       </c>
       <c r="CJ6">
-        <v>0.06469339665372643</v>
+        <v>0.08984668866354409</v>
       </c>
       <c r="CK6">
-        <v>0.01900240649147369</v>
+        <v>0.0620989692465576</v>
       </c>
       <c r="CL6">
-        <v>0.0007851354303585149</v>
+        <v>0.01389544842955549</v>
       </c>
       <c r="CM6">
-        <v>0.03589068384325595</v>
+        <v>0.04424412924174762</v>
       </c>
       <c r="CN6">
-        <v>0.07577868190303115</v>
+        <v>0.08905208810029761</v>
       </c>
       <c r="CO6">
-        <v>0.08501087554035335</v>
+        <v>0.0008414949592094731</v>
       </c>
       <c r="CP6">
-        <v>0.06128048361174006</v>
+        <v>0.003959576209563186</v>
       </c>
       <c r="CQ6">
-        <v>0.02122700758642023</v>
+        <v>0.01033492671294554</v>
       </c>
       <c r="CR6">
-        <v>0.008704578091730274</v>
+        <v>0.1205490894983011</v>
       </c>
       <c r="CS6">
-        <v>0.0009103610207791586</v>
+        <v>0.06252445640890046</v>
       </c>
       <c r="CT6">
-        <v>0.02149692371995084</v>
+        <v>0.01273050459041874</v>
       </c>
       <c r="CU6">
-        <v>0.05211832495660288</v>
+        <v>0.1327055274150623</v>
       </c>
       <c r="CV6">
-        <v>0.07527681746404094</v>
+        <v>0.0001735145551423682</v>
       </c>
       <c r="CW6">
-        <v>0.09795488771242741</v>
+        <v>0.01277652088582225</v>
       </c>
       <c r="CX6">
-        <v>0.07417866735537973</v>
+        <v>0.0255786733515599</v>
       </c>
       <c r="CY6">
-        <v>0.02275681372556282</v>
+        <v>0.0001985016999668228</v>
       </c>
       <c r="CZ6">
-        <v>0</v>
+        <v>0.002493479425249185</v>
       </c>
       <c r="DA6">
-        <v>0</v>
+        <v>0.0005590595040898926</v>
       </c>
       <c r="DB6">
         <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0.01165292067945346</v>
+      </c>
+      <c r="DD6">
+        <v>0.0007824257343332015</v>
+      </c>
+      <c r="DE6">
+        <v>0.005673096678309552</v>
+      </c>
+      <c r="DF6">
+        <v>0.0004047914878931961</v>
+      </c>
+      <c r="DG6">
+        <v>0.01940134220648067</v>
+      </c>
+      <c r="DH6">
+        <v>0.009148627027042234</v>
       </c>
     </row>
   </sheetData>
@@ -2705,15 +2828,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DB6"/>
+  <dimension ref="A1:DH6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:106">
+    <row r="1" spans="1:112">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3030,10 +3153,28 @@
       <c r="DB1" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:106">
+    <row r="2" spans="1:112">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3042,1593 +3183,1683 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.08981973694871939</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.2136555266686191</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2455346085262544</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2455346085262544</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2579529630224724</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2776737799025279</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2855855979822006</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3893474716176375</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4832352004154966</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.4866903623691241</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.5244040735639329</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.6495690007629034</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.6515414120642908</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.6540353259927245</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.716920997226248</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.7413269515714311</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.7646591645374482</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.7647687856139348</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.8564940656082968</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.8648100463631067</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.9088679730711603</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.9496657054676068</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.9500057453645677</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.9554037247266858</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.9554037247266858</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.9583221888068376</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.9585350510885605</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.9611755973558657</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.9611755973558657</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.9616874931950921</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.9628403928645667</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU2">
-        <v>0.003726327787528696</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV2">
-        <v>0.0202381716298032</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW2">
-        <v>0.02074768551494999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX2">
-        <v>0.03635049966373213</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY2">
-        <v>0.03689455558202767</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ2">
-        <v>0.03729542617973194</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA2">
-        <v>0.05760414828143735</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB2">
-        <v>0.06592923486503584</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC2">
-        <v>0.06989969250636474</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CD2">
-        <v>0.1104524011189819</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CE2">
-        <v>0.168419798528899</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CF2">
-        <v>0.2016530207165251</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CG2">
-        <v>0.2017301874586872</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CH2">
-        <v>0.2232536023574037</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CI2">
-        <v>0.2777595329235668</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CJ2">
-        <v>0.3208820723791047</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CK2">
-        <v>0.3437185687349013</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CL2">
-        <v>0.3493947231328465</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CM2">
-        <v>0.3526330327629409</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CN2">
-        <v>0.3803667591789633</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CO2">
-        <v>0.440810036333907</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CP2">
-        <v>0.5289960688546295</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CQ2">
-        <v>0.6051452461324688</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CR2">
-        <v>0.6311764940648009</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CS2">
-        <v>0.6344314729262105</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CT2">
-        <v>0.6393243491767785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CU2">
-        <v>0.669468797322382</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CV2">
-        <v>0.7395476051811156</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CW2">
-        <v>0.8392190284299882</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CX2">
-        <v>0.9393196997540211</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CY2">
-        <v>0.9888470411703324</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CZ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DA2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DB2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DC2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DD2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DE2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DF2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DG2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DH2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:112">
+      <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0.1395651056309408</v>
+      </c>
+      <c r="CC3">
+        <v>0.2091813290084916</v>
+      </c>
+      <c r="CD3">
+        <v>0.2862387762572774</v>
+      </c>
+      <c r="CE3">
+        <v>0.2862387762572774</v>
+      </c>
+      <c r="CF3">
+        <v>0.289557474483956</v>
+      </c>
+      <c r="CG3">
+        <v>0.3166043638542948</v>
+      </c>
+      <c r="CH3">
+        <v>0.3224652760372563</v>
+      </c>
+      <c r="CI3">
+        <v>0.4049964331062636</v>
+      </c>
+      <c r="CJ3">
+        <v>0.4822010513959366</v>
+      </c>
+      <c r="CK3">
+        <v>0.5088763799330707</v>
+      </c>
+      <c r="CL3">
+        <v>0.5321063360616891</v>
+      </c>
+      <c r="CM3">
+        <v>0.6791158170333309</v>
+      </c>
+      <c r="CN3">
+        <v>0.6795714432745001</v>
+      </c>
+      <c r="CO3">
+        <v>0.6859618038776407</v>
+      </c>
+      <c r="CP3">
+        <v>0.7176244800853943</v>
+      </c>
+      <c r="CQ3">
+        <v>0.7447872582874134</v>
+      </c>
+      <c r="CR3">
+        <v>0.760600437681703</v>
+      </c>
+      <c r="CS3">
+        <v>0.7765655799003711</v>
+      </c>
+      <c r="CT3">
+        <v>0.8310137032432541</v>
+      </c>
+      <c r="CU3">
+        <v>0.8699247514731295</v>
+      </c>
+      <c r="CV3">
+        <v>0.9143019976599422</v>
+      </c>
+      <c r="CW3">
+        <v>0.9355026451042981</v>
+      </c>
+      <c r="CX3">
+        <v>0.9356704746952844</v>
+      </c>
+      <c r="CY3">
+        <v>0.9359786457725119</v>
+      </c>
+      <c r="CZ3">
+        <v>0.9364283482326904</v>
+      </c>
+      <c r="DA3">
+        <v>0.9531344990833227</v>
+      </c>
+      <c r="DB3">
+        <v>0.9573107501243044</v>
+      </c>
+      <c r="DC3">
+        <v>0.9797276684614602</v>
+      </c>
+      <c r="DD3">
+        <v>0.9800915870961612</v>
+      </c>
+      <c r="DE3">
+        <v>0.9801851178341734</v>
+      </c>
+      <c r="DF3">
+        <v>0.9865627857648813</v>
+      </c>
+      <c r="DG3">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="DH3">
+        <v>0.9999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:112">
+      <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0.1183560323431743</v>
+      </c>
+      <c r="CC4">
+        <v>0.1906829998833908</v>
+      </c>
+      <c r="CD4">
+        <v>0.2483855978983331</v>
+      </c>
+      <c r="CE4">
+        <v>0.2543872626131436</v>
+      </c>
+      <c r="CF4">
+        <v>0.2544560219643705</v>
+      </c>
+      <c r="CG4">
+        <v>0.3149059562683454</v>
+      </c>
+      <c r="CH4">
+        <v>0.3179452295484076</v>
+      </c>
+      <c r="CI4">
+        <v>0.3700577312341874</v>
+      </c>
+      <c r="CJ4">
+        <v>0.4660469330375973</v>
+      </c>
+      <c r="CK4">
+        <v>0.4855695213386526</v>
+      </c>
+      <c r="CL4">
+        <v>0.4971335236981573</v>
+      </c>
+      <c r="CM4">
+        <v>0.6755268582301667</v>
+      </c>
+      <c r="CN4">
+        <v>0.6940307544614713</v>
+      </c>
+      <c r="CO4">
+        <v>0.6946529692647034</v>
+      </c>
+      <c r="CP4">
+        <v>0.6947135427403246</v>
+      </c>
+      <c r="CQ4">
+        <v>0.7345635989513408</v>
+      </c>
+      <c r="CR4">
+        <v>0.8039156363163275</v>
+      </c>
+      <c r="CS4">
+        <v>0.8039296056940689</v>
+      </c>
+      <c r="CT4">
+        <v>0.8955267917899576</v>
+      </c>
+      <c r="CU4">
+        <v>0.9219105679892428</v>
+      </c>
+      <c r="CV4">
+        <v>0.933290814454087</v>
+      </c>
+      <c r="CW4">
+        <v>0.9553786062098529</v>
+      </c>
+      <c r="CX4">
+        <v>0.9557016338492307</v>
+      </c>
+      <c r="CY4">
+        <v>0.9593966882143476</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9613999553068786</v>
+      </c>
+      <c r="DA4">
+        <v>0.9621467018295098</v>
+      </c>
+      <c r="DB4">
+        <v>0.9667584261317401</v>
+      </c>
+      <c r="DC4">
+        <v>0.9736680549608067</v>
+      </c>
+      <c r="DD4">
+        <v>0.9748636422589426</v>
+      </c>
+      <c r="DE4">
+        <v>0.9802391019910819</v>
+      </c>
+      <c r="DF4">
+        <v>0.9802515635394842</v>
+      </c>
+      <c r="DG4">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="DH4">
+        <v>0.9999999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:112">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0.05413347948808683</v>
+      </c>
+      <c r="CA5">
+        <v>0.05954606169900556</v>
+      </c>
+      <c r="CB5">
+        <v>0.2302779797629196</v>
+      </c>
+      <c r="CC5">
+        <v>0.2421543574149216</v>
+      </c>
+      <c r="CD5">
+        <v>0.2421543574149216</v>
+      </c>
+      <c r="CE5">
+        <v>0.2440207610683903</v>
+      </c>
+      <c r="CF5">
+        <v>0.2708910435283889</v>
+      </c>
+      <c r="CG5">
+        <v>0.2989712920892602</v>
+      </c>
+      <c r="CH5">
+        <v>0.3890059163910167</v>
+      </c>
+      <c r="CI5">
+        <v>0.4455884562875023</v>
+      </c>
+      <c r="CJ5">
+        <v>0.445959014419825</v>
+      </c>
+      <c r="CK5">
+        <v>0.5530572502345573</v>
+      </c>
+      <c r="CL5">
+        <v>0.6051373535231321</v>
+      </c>
+      <c r="CM5">
+        <v>0.6051373535231321</v>
+      </c>
+      <c r="CN5">
+        <v>0.6271329127699901</v>
+      </c>
+      <c r="CO5">
+        <v>0.6906595223922886</v>
+      </c>
+      <c r="CP5">
+        <v>0.6980349518737371</v>
+      </c>
+      <c r="CQ5">
+        <v>0.7285719324326699</v>
+      </c>
+      <c r="CR5">
+        <v>0.7318229422165082</v>
+      </c>
+      <c r="CS5">
+        <v>0.8265254443089189</v>
+      </c>
+      <c r="CT5">
+        <v>0.8518322850985941</v>
+      </c>
+      <c r="CU5">
+        <v>0.9249230134164699</v>
+      </c>
+      <c r="CV5">
+        <v>0.9268031878862054</v>
+      </c>
+      <c r="CW5">
+        <v>0.9272757216445165</v>
+      </c>
+      <c r="CX5">
+        <v>0.9283781963241918</v>
+      </c>
+      <c r="CY5">
+        <v>0.9295312180207259</v>
+      </c>
+      <c r="CZ5">
+        <v>0.9693458318142755</v>
+      </c>
+      <c r="DA5">
+        <v>0.9782756293375128</v>
+      </c>
+      <c r="DB5">
+        <v>0.9859312038227878</v>
+      </c>
+      <c r="DC5">
+        <v>0.9912350463894568</v>
+      </c>
+      <c r="DD5">
+        <v>0.9999976095144875</v>
+      </c>
+      <c r="DE5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH5">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:112">
+      <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0.05436386184383819</v>
+      </c>
+      <c r="CD6">
+        <v>0.1658535693107102</v>
+      </c>
+      <c r="CE6">
+        <v>0.2250145903378258</v>
+      </c>
+      <c r="CF6">
+        <v>0.2270734448774964</v>
+      </c>
+      <c r="CG6">
+        <v>0.238986650650971</v>
+      </c>
+      <c r="CH6">
+        <v>0.2568684429683714</v>
+      </c>
+      <c r="CI6">
+        <v>0.2683741472885543</v>
+      </c>
+      <c r="CJ6">
+        <v>0.3582208359520984</v>
+      </c>
+      <c r="CK6">
+        <v>0.420319805198656</v>
+      </c>
+      <c r="CL6">
+        <v>0.4342152536282115</v>
+      </c>
+      <c r="CM6">
+        <v>0.4784593828699591</v>
+      </c>
+      <c r="CN6">
+        <v>0.5675114709702568</v>
+      </c>
+      <c r="CO6">
+        <v>0.5683529659294663</v>
+      </c>
+      <c r="CP6">
+        <v>0.5723125421390295</v>
+      </c>
+      <c r="CQ6">
+        <v>0.582647468851975</v>
+      </c>
+      <c r="CR6">
+        <v>0.7031965583502762</v>
+      </c>
+      <c r="CS6">
+        <v>0.7657210147591766</v>
+      </c>
+      <c r="CT6">
+        <v>0.7784515193495953</v>
+      </c>
+      <c r="CU6">
+        <v>0.9111570467646576</v>
+      </c>
+      <c r="CV6">
+        <v>0.9113305613197999</v>
+      </c>
+      <c r="CW6">
+        <v>0.9241070822056222</v>
+      </c>
+      <c r="CX6">
+        <v>0.9496857555571822</v>
+      </c>
+      <c r="CY6">
+        <v>0.949884257257149</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9523777366823981</v>
+      </c>
+      <c r="DA6">
+        <v>0.952936796186488</v>
+      </c>
+      <c r="DB6">
+        <v>0.952936796186488</v>
+      </c>
+      <c r="DC6">
+        <v>0.9645897168659414</v>
+      </c>
+      <c r="DD6">
+        <v>0.9653721426002746</v>
+      </c>
+      <c r="DE6">
+        <v>0.9710452392785841</v>
+      </c>
+      <c r="DF6">
+        <v>0.9714500307664773</v>
+      </c>
+      <c r="DG6">
+        <v>0.990851372972958</v>
+      </c>
+      <c r="DH6">
         <v>1</v>
-      </c>
-      <c r="DA2">
-        <v>1</v>
-      </c>
-      <c r="DB2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:106">
-      <c r="A3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>0.006792736775670077</v>
-      </c>
-      <c r="BX3">
-        <v>0.006792736775670077</v>
-      </c>
-      <c r="BY3">
-        <v>0.006951910750883276</v>
-      </c>
-      <c r="BZ3">
-        <v>0.007219491847004087</v>
-      </c>
-      <c r="CA3">
-        <v>0.01197815369895968</v>
-      </c>
-      <c r="CB3">
-        <v>0.03694196762144068</v>
-      </c>
-      <c r="CC3">
-        <v>0.03967703827224876</v>
-      </c>
-      <c r="CD3">
-        <v>0.07187611573657779</v>
-      </c>
-      <c r="CE3">
-        <v>0.1446036455898776</v>
-      </c>
-      <c r="CF3">
-        <v>0.1898361311851767</v>
-      </c>
-      <c r="CG3">
-        <v>0.1926232098138607</v>
-      </c>
-      <c r="CH3">
-        <v>0.2092240142858294</v>
-      </c>
-      <c r="CI3">
-        <v>0.2643873795027938</v>
-      </c>
-      <c r="CJ3">
-        <v>0.3397934060066363</v>
-      </c>
-      <c r="CK3">
-        <v>0.3874817883516199</v>
-      </c>
-      <c r="CL3">
-        <v>0.3977741584978783</v>
-      </c>
-      <c r="CM3">
-        <v>0.4036809450041755</v>
-      </c>
-      <c r="CN3">
-        <v>0.4527241615757959</v>
-      </c>
-      <c r="CO3">
-        <v>0.5292616162078877</v>
-      </c>
-      <c r="CP3">
-        <v>0.6041994347335685</v>
-      </c>
-      <c r="CQ3">
-        <v>0.6651338089823806</v>
-      </c>
-      <c r="CR3">
-        <v>0.7026637589478455</v>
-      </c>
-      <c r="CS3">
-        <v>0.7092314989623506</v>
-      </c>
-      <c r="CT3">
-        <v>0.7116408552956988</v>
-      </c>
-      <c r="CU3">
-        <v>0.7391670401250391</v>
-      </c>
-      <c r="CV3">
-        <v>0.7941791749537288</v>
-      </c>
-      <c r="CW3">
-        <v>0.8691437609899859</v>
-      </c>
-      <c r="CX3">
-        <v>0.9403833867040234</v>
-      </c>
-      <c r="CY3">
-        <v>0.9820165350782022</v>
-      </c>
-      <c r="CZ3">
-        <v>0.9963444960836272</v>
-      </c>
-      <c r="DA3">
-        <v>1</v>
-      </c>
-      <c r="DB3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:106">
-      <c r="A4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.01655474909039141</v>
-      </c>
-      <c r="E4">
-        <v>0.03946832241265419</v>
-      </c>
-      <c r="F4">
-        <v>0.06390335928201715</v>
-      </c>
-      <c r="G4">
-        <v>0.08400454120553376</v>
-      </c>
-      <c r="H4">
-        <v>0.1003419667452565</v>
-      </c>
-      <c r="I4">
-        <v>0.1089091393315639</v>
-      </c>
-      <c r="J4">
-        <v>0.1122593022835412</v>
-      </c>
-      <c r="K4">
-        <v>0.1129927537456107</v>
-      </c>
-      <c r="L4">
-        <v>0.1129927537456107</v>
-      </c>
-      <c r="M4">
-        <v>0.1129927537456107</v>
-      </c>
-      <c r="N4">
-        <v>0.1129927537456107</v>
-      </c>
-      <c r="O4">
-        <v>0.1129927537456107</v>
-      </c>
-      <c r="P4">
-        <v>0.1140577745566008</v>
-      </c>
-      <c r="Q4">
-        <v>0.1205532761273485</v>
-      </c>
-      <c r="R4">
-        <v>0.1360545138566227</v>
-      </c>
-      <c r="S4">
-        <v>0.1566376481223396</v>
-      </c>
-      <c r="T4">
-        <v>0.1818696082965749</v>
-      </c>
-      <c r="U4">
-        <v>0.2035800945143448</v>
-      </c>
-      <c r="V4">
-        <v>0.2139021665316492</v>
-      </c>
-      <c r="W4">
-        <v>0.2162262825060713</v>
-      </c>
-      <c r="X4">
-        <v>0.2162262825060713</v>
-      </c>
-      <c r="Y4">
-        <v>0.2215221285841441</v>
-      </c>
-      <c r="Z4">
-        <v>0.2395477580064038</v>
-      </c>
-      <c r="AA4">
-        <v>0.2817871404830448</v>
-      </c>
-      <c r="AB4">
-        <v>0.3465299623059216</v>
-      </c>
-      <c r="AC4">
-        <v>0.4399742420121659</v>
-      </c>
-      <c r="AD4">
-        <v>0.555786498790738</v>
-      </c>
-      <c r="AE4">
-        <v>0.6819577605650567</v>
-      </c>
-      <c r="AF4">
-        <v>0.803582349565172</v>
-      </c>
-      <c r="AG4">
-        <v>0.9030712356344452</v>
-      </c>
-      <c r="AH4">
-        <v>0.9697852439493945</v>
-      </c>
-      <c r="AI4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AJ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AK4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AL4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AM4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AN4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AO4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AP4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AQ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AR4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AS4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AT4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AU4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AV4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AW4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AX4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AY4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AZ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BA4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BB4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BC4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BD4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BE4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BF4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BG4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BH4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BI4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BJ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BK4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BL4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BM4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BN4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BO4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BP4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BQ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BR4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BS4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BT4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BU4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BV4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BW4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BX4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BY4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BZ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CA4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CB4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CC4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CD4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CE4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CF4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CG4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CH4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CI4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CJ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CK4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CL4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CM4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CN4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CO4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CP4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CQ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CR4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CS4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CT4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CU4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CV4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CW4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CX4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CY4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="CZ4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="DA4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="DB4">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:106">
-      <c r="A5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0.005704338696864659</v>
-      </c>
-      <c r="Z5">
-        <v>0.01107067486192605</v>
-      </c>
-      <c r="AA5">
-        <v>0.01461773981560978</v>
-      </c>
-      <c r="AB5">
-        <v>0.01811873996277671</v>
-      </c>
-      <c r="AC5">
-        <v>0.01989634422210902</v>
-      </c>
-      <c r="AD5">
-        <v>0.0207910849855612</v>
-      </c>
-      <c r="AE5">
-        <v>0.02100900701974405</v>
-      </c>
-      <c r="AF5">
-        <v>0.02100900701974405</v>
-      </c>
-      <c r="AG5">
-        <v>0.02100900701974405</v>
-      </c>
-      <c r="AH5">
-        <v>0.02133970789363703</v>
-      </c>
-      <c r="AI5">
-        <v>0.0213788999225249</v>
-      </c>
-      <c r="AJ5">
-        <v>0.02179780999133095</v>
-      </c>
-      <c r="AK5">
-        <v>0.02192997811549187</v>
-      </c>
-      <c r="AL5">
-        <v>0.02192997811549187</v>
-      </c>
-      <c r="AM5">
-        <v>0.02192997811549187</v>
-      </c>
-      <c r="AN5">
-        <v>0.02192997811549187</v>
-      </c>
-      <c r="AO5">
-        <v>0.02234019180667907</v>
-      </c>
-      <c r="AP5">
-        <v>0.02261735004174389</v>
-      </c>
-      <c r="AQ5">
-        <v>0.02261735004174389</v>
-      </c>
-      <c r="AR5">
-        <v>0.02261735004174389</v>
-      </c>
-      <c r="AS5">
-        <v>0.02867460373692854</v>
-      </c>
-      <c r="AT5">
-        <v>0.07610301006646442</v>
-      </c>
-      <c r="AU5">
-        <v>0.1689209173484272</v>
-      </c>
-      <c r="AV5">
-        <v>0.3330660720295839</v>
-      </c>
-      <c r="AW5">
-        <v>0.3337279590112678</v>
-      </c>
-      <c r="AX5">
-        <v>0.3337279590112678</v>
-      </c>
-      <c r="AY5">
-        <v>0.3341080344691537</v>
-      </c>
-      <c r="AZ5">
-        <v>0.3398850542074046</v>
-      </c>
-      <c r="BA5">
-        <v>0.3697444366588002</v>
-      </c>
-      <c r="BB5">
-        <v>0.415791319829967</v>
-      </c>
-      <c r="BC5">
-        <v>0.4993789911261298</v>
-      </c>
-      <c r="BD5">
-        <v>1</v>
-      </c>
-      <c r="BE5">
-        <v>1</v>
-      </c>
-      <c r="BF5">
-        <v>1</v>
-      </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
-        <v>1</v>
-      </c>
-      <c r="BI5">
-        <v>1</v>
-      </c>
-      <c r="BJ5">
-        <v>1</v>
-      </c>
-      <c r="BK5">
-        <v>1</v>
-      </c>
-      <c r="BL5">
-        <v>1</v>
-      </c>
-      <c r="BM5">
-        <v>1</v>
-      </c>
-      <c r="BN5">
-        <v>1</v>
-      </c>
-      <c r="BO5">
-        <v>1</v>
-      </c>
-      <c r="BP5">
-        <v>1</v>
-      </c>
-      <c r="BQ5">
-        <v>1</v>
-      </c>
-      <c r="BR5">
-        <v>1</v>
-      </c>
-      <c r="BS5">
-        <v>1</v>
-      </c>
-      <c r="BT5">
-        <v>1</v>
-      </c>
-      <c r="BU5">
-        <v>1</v>
-      </c>
-      <c r="BV5">
-        <v>1</v>
-      </c>
-      <c r="BW5">
-        <v>1</v>
-      </c>
-      <c r="BX5">
-        <v>1</v>
-      </c>
-      <c r="BY5">
-        <v>1</v>
-      </c>
-      <c r="BZ5">
-        <v>1</v>
-      </c>
-      <c r="CA5">
-        <v>1</v>
-      </c>
-      <c r="CB5">
-        <v>1</v>
-      </c>
-      <c r="CC5">
-        <v>1</v>
-      </c>
-      <c r="CD5">
-        <v>1</v>
-      </c>
-      <c r="CE5">
-        <v>1</v>
-      </c>
-      <c r="CF5">
-        <v>1</v>
-      </c>
-      <c r="CG5">
-        <v>1</v>
-      </c>
-      <c r="CH5">
-        <v>1</v>
-      </c>
-      <c r="CI5">
-        <v>1</v>
-      </c>
-      <c r="CJ5">
-        <v>1</v>
-      </c>
-      <c r="CK5">
-        <v>1</v>
-      </c>
-      <c r="CL5">
-        <v>1</v>
-      </c>
-      <c r="CM5">
-        <v>1</v>
-      </c>
-      <c r="CN5">
-        <v>1</v>
-      </c>
-      <c r="CO5">
-        <v>1</v>
-      </c>
-      <c r="CP5">
-        <v>1</v>
-      </c>
-      <c r="CQ5">
-        <v>1</v>
-      </c>
-      <c r="CR5">
-        <v>1</v>
-      </c>
-      <c r="CS5">
-        <v>1</v>
-      </c>
-      <c r="CT5">
-        <v>1</v>
-      </c>
-      <c r="CU5">
-        <v>1</v>
-      </c>
-      <c r="CV5">
-        <v>1</v>
-      </c>
-      <c r="CW5">
-        <v>1</v>
-      </c>
-      <c r="CX5">
-        <v>1</v>
-      </c>
-      <c r="CY5">
-        <v>1</v>
-      </c>
-      <c r="CZ5">
-        <v>1</v>
-      </c>
-      <c r="DA5">
-        <v>1</v>
-      </c>
-      <c r="DB5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:106">
-      <c r="A6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>0</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0.003454173657956241</v>
-      </c>
-      <c r="BU6">
-        <v>0.01572226716652984</v>
-      </c>
-      <c r="BV6">
-        <v>0.01587045869270618</v>
-      </c>
-      <c r="BW6">
-        <v>0.0314238867799999</v>
-      </c>
-      <c r="BX6">
-        <v>0.03662777867779138</v>
-      </c>
-      <c r="BY6">
-        <v>0.03669905243664346</v>
-      </c>
-      <c r="BZ6">
-        <v>0.03845307157279258</v>
-      </c>
-      <c r="CA6">
-        <v>0.03878463258076172</v>
-      </c>
-      <c r="CB6">
-        <v>0.05156652079677179</v>
-      </c>
-      <c r="CC6">
-        <v>0.05160607801103132</v>
-      </c>
-      <c r="CD6">
-        <v>0.09867302279200824</v>
-      </c>
-      <c r="CE6">
-        <v>0.165150907365072</v>
-      </c>
-      <c r="CF6">
-        <v>0.1784877318183153</v>
-      </c>
-      <c r="CG6">
-        <v>0.1808148487515371</v>
-      </c>
-      <c r="CH6">
-        <v>0.2109089144320839</v>
-      </c>
-      <c r="CI6">
-        <v>0.2829339548931665</v>
-      </c>
-      <c r="CJ6">
-        <v>0.3476273515468929</v>
-      </c>
-      <c r="CK6">
-        <v>0.3666297580383666</v>
-      </c>
-      <c r="CL6">
-        <v>0.3674148934687251</v>
-      </c>
-      <c r="CM6">
-        <v>0.4033055773119811</v>
-      </c>
-      <c r="CN6">
-        <v>0.4790842592150122</v>
-      </c>
-      <c r="CO6">
-        <v>0.5640951347553655</v>
-      </c>
-      <c r="CP6">
-        <v>0.6253756183671056</v>
-      </c>
-      <c r="CQ6">
-        <v>0.6466026259535259</v>
-      </c>
-      <c r="CR6">
-        <v>0.6553072040452562</v>
-      </c>
-      <c r="CS6">
-        <v>0.6562175650660353</v>
-      </c>
-      <c r="CT6">
-        <v>0.6777144887859862</v>
-      </c>
-      <c r="CU6">
-        <v>0.729832813742589</v>
-      </c>
-      <c r="CV6">
-        <v>0.8051096312066299</v>
-      </c>
-      <c r="CW6">
-        <v>0.9030645189190574</v>
-      </c>
-      <c r="CX6">
-        <v>0.9772431862744371</v>
-      </c>
-      <c r="CY6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="CZ6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DA6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="DB6">
-        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4646,302 +4877,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>0.0202381716298032</v>
+        <v>0.08981973694871939</v>
       </c>
       <c r="F2">
-        <v>0.5289960688546295</v>
+        <v>0.5244040735639329</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2">
         <v>126</v>
-      </c>
-      <c r="J2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2">
-        <v>314</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>0.01197815369895968</v>
+        <v>0.1395651056309408</v>
       </c>
       <c r="F3">
-        <v>0.5292616162078877</v>
+        <v>0.5088763799330707</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3">
         <v>126</v>
-      </c>
-      <c r="J3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3">
-        <v>314</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>0.01655474909039141</v>
+        <v>0.1183560323431743</v>
       </c>
       <c r="F4">
-        <v>0.555786498790738</v>
+        <v>0.6755268582301667</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4">
         <v>126</v>
-      </c>
-      <c r="J4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4">
-        <v>314</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E5">
-        <v>0.01107067486192605</v>
+        <v>0.2302779797629196</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5530572502345573</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5">
         <v>126</v>
-      </c>
-      <c r="J5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5">
-        <v>314</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>129</v>
-      </c>
-      <c r="O5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6">
-        <v>0.01572226716652984</v>
+        <v>0.1658535693107102</v>
       </c>
       <c r="F6">
-        <v>0.5640951347553655</v>
+        <v>0.5675114709702568</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6">
         <v>126</v>
-      </c>
-      <c r="J6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6">
-        <v>314</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>129</v>
-      </c>
-      <c r="O6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4959,302 +5175,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>0.0202381716298032</v>
+        <v>0.08981973694871939</v>
       </c>
       <c r="F2">
-        <v>0.7395476051811156</v>
+        <v>0.716920997226248</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2">
         <v>126</v>
-      </c>
-      <c r="J2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2">
-        <v>314</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01197815369895968</v>
+        <v>0.1395651056309408</v>
       </c>
       <c r="F3">
-        <v>0.7026637589478455</v>
+        <v>0.7176244800853943</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3">
         <v>126</v>
-      </c>
-      <c r="J3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3">
-        <v>314</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.01655474909039141</v>
+        <v>0.1183560323431743</v>
       </c>
       <c r="F4">
-        <v>0.803582349565172</v>
+        <v>0.7345635989513408</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4">
         <v>126</v>
-      </c>
-      <c r="J4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4">
-        <v>314</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.01107067486192605</v>
+        <v>0.2302779797629196</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.7285719324326699</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5">
         <v>126</v>
-      </c>
-      <c r="J5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5">
-        <v>314</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>129</v>
-      </c>
-      <c r="O5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>0.01572226716652984</v>
+        <v>0.1658535693107102</v>
       </c>
       <c r="F6">
-        <v>0.729832813742589</v>
+        <v>0.7031965583502762</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6">
         <v>126</v>
-      </c>
-      <c r="J6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6">
-        <v>314</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>129</v>
-      </c>
-      <c r="O6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5272,302 +5473,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>0.0202381716298032</v>
+        <v>0.08981973694871939</v>
       </c>
       <c r="F2">
-        <v>0.8392190284299882</v>
+        <v>0.8564940656082968</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2">
         <v>126</v>
-      </c>
-      <c r="J2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2">
-        <v>314</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>0.01197815369895968</v>
+        <v>0.1395651056309408</v>
       </c>
       <c r="F3">
-        <v>0.8691437609899859</v>
+        <v>0.8310137032432541</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3">
         <v>126</v>
-      </c>
-      <c r="J3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3">
-        <v>314</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>0.01655474909039141</v>
+        <v>0.1183560323431743</v>
       </c>
       <c r="F4">
-        <v>0.803582349565172</v>
+        <v>0.8039156363163275</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4">
         <v>126</v>
-      </c>
-      <c r="J4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4">
-        <v>314</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>0.01107067486192605</v>
+        <v>0.2302779797629196</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.8265254443089189</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5">
         <v>126</v>
-      </c>
-      <c r="J5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5">
-        <v>314</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>129</v>
-      </c>
-      <c r="O5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01572226716652984</v>
+        <v>0.1658535693107102</v>
       </c>
       <c r="F6">
-        <v>0.8051096312066299</v>
+        <v>0.9111570467646576</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6">
         <v>126</v>
-      </c>
-      <c r="J6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6">
-        <v>314</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>129</v>
-      </c>
-      <c r="O6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5585,302 +5771,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0.0202381716298032</v>
+        <v>0.08981973694871939</v>
       </c>
       <c r="F2">
-        <v>0.9393196997540211</v>
+        <v>0.9088679730711603</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2">
         <v>126</v>
-      </c>
-      <c r="J2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2">
-        <v>314</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.01197815369895968</v>
+        <v>0.1395651056309408</v>
       </c>
       <c r="F3">
-        <v>0.9403833867040234</v>
+        <v>0.9143019976599422</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3">
         <v>126</v>
-      </c>
-      <c r="J3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3">
-        <v>314</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>0.01655474909039141</v>
+        <v>0.1183560323431743</v>
       </c>
       <c r="F4">
-        <v>0.9030712356344452</v>
+        <v>0.9219105679892428</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4">
         <v>126</v>
-      </c>
-      <c r="J4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4">
-        <v>314</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.01107067486192605</v>
+        <v>0.2302779797629196</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.9249230134164699</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5">
         <v>126</v>
-      </c>
-      <c r="J5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5">
-        <v>314</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>129</v>
-      </c>
-      <c r="O5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01572226716652984</v>
+        <v>0.1658535693107102</v>
       </c>
       <c r="F6">
-        <v>0.9030645189190574</v>
+        <v>0.9111570467646576</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6">
         <v>126</v>
-      </c>
-      <c r="J6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6">
-        <v>314</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>129</v>
-      </c>
-      <c r="O6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
